--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -44,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -90,6 +90,12 @@
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -150,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,6 +191,22 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -270,9 +292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1243080</xdr:colOff>
+      <xdr:colOff>1242720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -286,7 +308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1183680" cy="1112040"/>
+          <a:ext cx="1183320" cy="1111680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -478,10 +500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,6 +582,18 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
+    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -193,19 +193,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,9 +292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1242720</xdr:colOff>
+      <xdr:colOff>1242360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,7 +308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1183320" cy="1111680"/>
+          <a:ext cx="1182960" cy="1111320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,6 +564,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="4"/>
@@ -595,11 +596,12 @@
       <c r="J8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -292,9 +292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1242360</xdr:colOff>
+      <xdr:colOff>1241280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,7 +308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1182960" cy="1111320"/>
+          <a:ext cx="1181880" cy="1110240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,10 +500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,8 +517,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -534,6 +536,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="3" t="s">
@@ -563,8 +567,8 @@
         <v>4</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="4"/>
@@ -582,6 +586,8 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -593,11 +599,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C4:D4"/>

--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -19,10 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[días]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[días]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">REPORTE GENERAL PLANTA BAJA</t>
+    <t xml:space="preserve">TITULO REPORTE </t>
   </si>
   <si>
     <t xml:space="preserve">Rango de Fechas:</t>
@@ -44,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -99,6 +133,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -156,12 +195,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,9 +335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1241280</xdr:colOff>
+      <xdr:colOff>1238760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,7 +351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1181880" cy="1110240"/>
+          <a:ext cx="1179360" cy="1107720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,112 +546,115 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -618,6 +664,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -335,9 +335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1238760</xdr:colOff>
+      <xdr:colOff>1238040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -351,7 +351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1179360" cy="1107720"/>
+          <a:ext cx="1178640" cy="1107000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,13 +546,13 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.61"/>

--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -1,56 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="25134" windowHeight="10328" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporte" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Reporte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="J7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[días]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[días]</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,88 +32,221 @@
     <t xml:space="preserve">TITULO REPORTE </t>
   </si>
   <si>
-    <t xml:space="preserve">Rango de Fechas:</t>
+    <t>Rango de Fechas:</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Días:</t>
+    <t>Total Días:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de Creación:</t>
+    <t>Fecha de Creación:</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuario:</t>
+    <t>Usuario:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,179 +259,832 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00999999"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -341,17 +1100,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392760" y="10080"/>
-          <a:ext cx="1178640" cy="1107000"/>
+          <a:off x="371475" y="9525"/>
+          <a:ext cx="1178560" cy="1107440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -367,41 +1128,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -409,17 +1170,17 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,7 +1204,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -461,7 +1222,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -512,7 +1273,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -530,43 +1291,42 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="11.75" outlineLevelRow="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="1" width="8.5"/>
+    <col min="1" max="1" width="4.16949152542373" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3305084745763" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9406779661017" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7542372881356" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.61016949152542" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1864406779661" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.95762711864407" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3728813559322" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.95762711864407" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.09322033898305" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.66101694915254" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7372881355932" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -582,7 +1342,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.45" customHeight="1" spans="3:7">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -591,14 +1351,14 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.45" customHeight="1" spans="3:5">
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.45" customHeight="1" spans="3:7">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -607,7 +1367,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.45" customHeight="1" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -615,12 +1375,12 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="8.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="8.8" customHeight="1" spans="3:5">
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="35" customHeight="1" spans="1:12">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -634,7 +1394,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="20.15" customHeight="1" spans="1:12">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -657,14 +1417,9 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/plantilla.xlsx
+++ b/src/assets/plantilla.xlsx
@@ -296,9 +296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1237680</xdr:colOff>
+      <xdr:colOff>1237320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -312,7 +312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="392760" y="10080"/>
-          <a:ext cx="1178280" cy="1106640"/>
+          <a:ext cx="1177920" cy="1106280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,13 +504,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="11.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.33"/>
@@ -520,13 +520,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="15" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -545,7 +545,6 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="4" t="s">
@@ -556,7 +555,6 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="6" t="s">
@@ -574,7 +572,6 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="4" t="s">
@@ -603,7 +600,6 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
@@ -618,12 +614,11 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C4:D4"/>
